--- a/Insights.xlsx
+++ b/Insights.xlsx
@@ -11847,7 +11847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11940,952 +11940,2952 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Consumer_Gender_F</t>
+          <t>ResponseTimeHours</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.34112416173729</v>
+        <v>1.431652985384237</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3942843863378814</v>
+        <v>0.2570432664816882</v>
       </c>
       <c r="E2" t="n">
-        <v>1.754320158580028</v>
+        <v>1.914552446699741</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.238459293409456</v>
+        <v>-6.88152355574033</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.039793196989353</v>
+        <v>-0.5579707492746437</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9973608002118083</v>
+        <v>0.6197917916913862</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7920893936370946</v>
+        <v>1.376415200177533</v>
       </c>
       <c r="J2" t="n">
-        <v>6.43490158578649</v>
+        <v>3.485255157216371</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M2" t="n">
-        <v>0.89</v>
+        <v>99.12916666666666</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>92.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3144660377352201</v>
+        <v>46.52380484991196</v>
       </c>
       <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Consumer_Gender_M</t>
+          <t>StatuteRiskScore</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.183264081595602</v>
+        <v>0.5709969958995025</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3542854893053251</v>
+        <v>0.1175209881510448</v>
       </c>
       <c r="E3" t="n">
-        <v>1.402332229824407</v>
+        <v>0.7086625196459768</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7894023330912573</v>
+        <v>-1.555162807393397</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6968942966230465</v>
+        <v>-0.362937187695705</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6397783956052009</v>
+        <v>0.09412563033874244</v>
       </c>
       <c r="I3" t="n">
-        <v>2.019356022830663</v>
+        <v>0.614705064615954</v>
       </c>
       <c r="J3" t="n">
-        <v>3.010529373022927</v>
+        <v>1.945052442234564</v>
       </c>
       <c r="K3" t="n">
-        <v>0.34</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3171845844395036</v>
+        <v>0.2348624927825621</v>
       </c>
       <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Call_Season_Unknown</t>
+          <t>CaseUrgencyScore</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6773068610587585</v>
+        <v>0.5527090351503731</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1170929596273409</v>
+        <v>0.03926740566966479</v>
       </c>
       <c r="E4" t="n">
-        <v>0.743754798577228</v>
+        <v>0.7478356258087936</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.134128482347861</v>
+        <v>-1.928383771183045</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7739078928675893</v>
+        <v>-0.415044673634373</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007743623457403107</v>
+        <v>-0.1364512905600128</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4233313754958339</v>
+        <v>0.3114829413699466</v>
       </c>
       <c r="J4" t="n">
-        <v>1.31131169465645</v>
+        <v>2.526461595052868</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="L4" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.238683256575942</v>
+        <v>0.5010275355236069</v>
       </c>
       <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Web_Lead_Attempt_Count</t>
+          <t>IncidentRecencyDays</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5711722468591196</v>
+        <v>0.4694523727045646</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.08595561275557775</v>
+        <v>0.04443746183767055</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6464580542338065</v>
+        <v>0.6092084689161913</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.763465313211263</v>
+        <v>-1.913741010942869</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.8660406121761719</v>
+        <v>-0.335184788004174</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2761845288704576</v>
+        <v>0.03591884754106656</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3976084087504585</v>
+        <v>0.4020970128316929</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8201848689469783</v>
+        <v>1.991061663045132</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.238683256575942</v>
+        <v>0.1798806360776621</v>
       </c>
       <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hours_Incident_to_Call</t>
+          <t>EngagementScore</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3783326526812023</v>
+        <v>0.4261728500034671</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.07285079549400736</v>
+        <v>0.04527531570320643</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7394343347894715</v>
+        <v>0.5881324980504189</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.038361849959826</v>
+        <v>-2.133347055658453</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2168218602337766</v>
+        <v>-0.1567804794901262</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1937287614566711</v>
+        <v>0.130029899737649</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1281040192067456</v>
+        <v>0.3569213135148555</v>
       </c>
       <c r="J6" t="n">
-        <v>2.903094726623606</v>
+        <v>1.511590489461759</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>7.6625</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>7.826481839986074</v>
       </c>
       <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Case_Urgency_Score</t>
+          <t>ConsumerAge</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3094671755001451</v>
+        <v>0.398146674032713</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1366569479850614</v>
+        <v>0.003275678746608269</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6405748821309685</v>
+        <v>0.5203820976854607</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2734592058808915</v>
+        <v>-1.542110755137138</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2491174665222179</v>
+        <v>-0.3016813587207117</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2370074747047767</v>
+        <v>0.01470160114798659</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2032326218751004</v>
+        <v>0.3114990355160989</v>
       </c>
       <c r="J7" t="n">
-        <v>4.383410480154269</v>
+        <v>1.61158302383835</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02</v>
+        <v>0.5125</v>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.9349855867444187</v>
       </c>
       <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Walker_Geo_Group_Outside_CA</t>
+          <t>CaseComplexityScore</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2484775102696119</v>
+        <v>0.3400976360833491</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06677993918235675</v>
+        <v>-0.02904887343498091</v>
       </c>
       <c r="E8" t="n">
-        <v>0.538736205120078</v>
+        <v>0.4324481558215161</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1710353526248906</v>
+        <v>-1.074760077909782</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1315659828634257</v>
+        <v>-0.2909596449944071</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.08989981160366992</v>
+        <v>-0.02424358645176361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03726403233040996</v>
+        <v>0.2459368740748132</v>
       </c>
       <c r="J8" t="n">
-        <v>2.201221609728486</v>
+        <v>1.054856665392885</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.4644810844633695</v>
       </c>
       <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Incident_Recency_Detailed_Unknown</t>
+          <t>InquiryDayOfWeek</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2435544210217858</v>
+        <v>0.3161018576158643</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05871787473295126</v>
+        <v>0.06760520927970987</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4657780227625507</v>
+        <v>0.3757580828080715</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1219690314938697</v>
+        <v>-0.9527873208781839</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1121388336201492</v>
+        <v>-0.1993178354697974</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.09820791130067356</v>
+        <v>0.1194666234011481</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09600994277670032</v>
+        <v>0.3172866703604881</v>
       </c>
       <c r="J9" t="n">
-        <v>1.463822608750814</v>
+        <v>1.156943100046854</v>
       </c>
       <c r="K9" t="n">
-        <v>0.11</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M9" t="n">
-        <v>1.861111111111111</v>
+        <v>0.3125</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4244510927759878</v>
+        <v>0.4644810844633695</v>
       </c>
       <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Walker_Geo_Group_ZZZ_OOS</t>
+          <t>ChannelCountLast30d</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2168807265974357</v>
+        <v>0.2610173025786194</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03148025034035171</v>
+        <v>0.02077876604159669</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4077480914087788</v>
+        <v>0.3285199410127005</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.259992200271216</v>
+        <v>-0.7492330201799307</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01543729300437444</v>
+        <v>-0.1910212431305466</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1206710051432922</v>
+        <v>-0.03109361781167869</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1362902263893667</v>
+        <v>0.194694100798677</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4660918106234451</v>
+        <v>0.8483887101167408</v>
       </c>
       <c r="K10" t="n">
-        <v>0.63</v>
+        <v>0.4875</v>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M10" t="n">
-        <v>9425.454545454546</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="N10" t="n">
-        <v>3912</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>12062.39661397051</v>
+        <v>0.4289879758257431</v>
       </c>
       <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Walker_Geo_Group_FL_OOS</t>
+          <t>DaysIncidentToInquiry</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.106153470343309</v>
+        <v>0.2579909610524159</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.03577503033238336</v>
+        <v>-0.0132443201625835</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2598422873807457</v>
+        <v>0.3533117642774387</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.243507980877564</v>
+        <v>-1.668389126569073</v>
       </c>
       <c r="G11" t="n">
-        <v>0.020299463519024</v>
+        <v>-0.1688721726018776</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02369208843318021</v>
+        <v>0.05038757750872123</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04829678479104393</v>
+        <v>0.1861137576883015</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08969975689248931</v>
+        <v>0.6426916408018343</v>
       </c>
       <c r="K11" t="n">
-        <v>0.92</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04</v>
+        <v>4.35</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1969463855669324</v>
+        <v>4.122263261038217</v>
       </c>
       <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Incident_Within_180_Days</t>
+          <t>PriorContactCount</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.2126410159343404</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.02069417649349855</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.3303197954939608</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.3757178732777355</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0.1628189699584305</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0.09193532534285144</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03755236474646147</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.55366313318507</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.3041666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.4779664034691019</v>
       </c>
       <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Incident_Season_Winter</t>
+          <t>InquiryTimeOfDay_Morning</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.2078605426478924</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.003742128318126602</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.2705791929084359</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.9236743589761144</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0.1129319739731466</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.09276595486404396</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.1573429216231664</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4211889758513966</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M13" t="n">
-        <v>0.48</v>
+        <v>5.059125</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>5.095000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5021167315686782</v>
+        <v>2.095539710640267</v>
       </c>
       <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Incident_Recency_Detailed_Moderate</t>
+          <t>TouchpointsLast7d</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.1687230453213683</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.03950736493859216</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.2128588909688517</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0.3854842113824895</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0.1144175226940779</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-0.03191755525573711</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.1918852589536017</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.7387641348427479</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1</v>
+        <v>0.4893958333333333</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.507</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3015113445777636</v>
+        <v>0.1927059610657257</v>
       </c>
       <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Incident_Recency_Detailed_Old</t>
+          <t>WebLeadAttempts</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.1684583928427173</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.004420481809882063</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.2069811550114428</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.4369319451703856</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0.142458999251962</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0.03983057843176378</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.1555030966019121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.6624628945243142</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M15" t="n">
-        <v>0.34</v>
+        <v>0.5884750000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.5945</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4760952285695234</v>
+        <v>0.2334766870356039</v>
       </c>
       <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Incident_to_Call_Within_1d</t>
+          <t>LanguageGroup_English</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.1672857559252767</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.01198710311811341</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.2111030237893208</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.706482538641819</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0.132736266941485</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.06942064026623918</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.1282062923850475</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.2717406440144874</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1407052941362897</v>
+        <v>0.4792595113495066</v>
       </c>
       <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Incident_to_Call_Within_3d</t>
+          <t>SourceMedium_Social</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.1518161777577799</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.003937315158307542</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.2476605739269165</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.126049071031479</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.03317364980279921</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.06738678421104943</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1148398674789153</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.2182787474767918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.8291666666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01</v>
+        <v>0.6708333333333333</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.4708926506370522</v>
       </c>
       <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>In_Optimal_Window</t>
+          <t>SourceMedium_Direct</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.1501554064236763</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.01068950815514695</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.2242023679659911</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.237204993352746</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-0.1247975470972379</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0.07713510533949333</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-0.02797343451457848</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.9972456768842473</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2726599243442907</v>
+        <v>0.3406450522228455</v>
       </c>
       <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Retention_by_Atty_Pending</t>
+          <t>ChannelIsPhone</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1500278858785478</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-0.006987414010128436</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1871407457424261</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-0.5669530231080552</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-0.1430279244630127</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.05840930463209258</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.123531726361745</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.2902401583431083</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="L19" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M19" t="n">
-        <v>0.09</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2876234912646614</v>
+        <v>1.535811471461158</v>
       </c>
       <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Walker_Geo_Group_FL_CA</t>
+          <t>CampaignTier_Tier3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.1476275663356653</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.01287433763873984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.1874808629330472</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.5917455270020496</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-0.1329705833664431</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.0439277070150174</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.09897189364070103</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.2985322246740318</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.6291666666666667</v>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M20" t="n">
+        <v>1.220833333333333</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.222686241742404</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CallDayOfWeek</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1445648663443988</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.0005237491650467294</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1781660421341485</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.5330800933802385</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.1173861013730881</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01509675843106162</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1389492138922673</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4355173844783204</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L21" t="n">
+        <v>240</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.3696798343381986</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>InquiryTimeOfDay_Evening</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1444548167444147</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.004952594302865895</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2420237927265466</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1976457461299493</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.1052361945965683</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.06517814620432406</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.03029487046933652</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.235239453629118</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.15</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.3588702812826367</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>240</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3291666666666667</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4708926506370521</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RegionGroup_Northeast</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1410388213881699</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.03072520092584122</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1847157380085005</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.2964249682093724</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.1414681112687957</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.08200584152150781</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.01127284573114752</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6855595800996602</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="L23" t="n">
+        <v>240</v>
+      </c>
+      <c r="M23" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>12.38510375326261</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DeviceType_Mobile</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1260149700116771</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.001075077171568066</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1590230646774645</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.502995293177635</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.07501045195015282</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0614480154411112</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1047602984196921</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.2441685181291524</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L24" t="n">
+        <v>240</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.150465311235868</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DaysIncidentToCall</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1119267465573588</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01615630594562742</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.163901114329204</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.3570875989398011</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.05966992268465333</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01318015917305023</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06756684703599035</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.6570497434787356</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="L25" t="n">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3061150365804358</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RegionGroup_South</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.09810323781999358</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.0002546796307836525</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1240117434222318</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1832650425292232</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.07815536781172298</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.04913319205088658</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02399422237451574</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.386561312714117</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="L26" t="n">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3791666666666667</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.4861936238664839</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LanguageGroup_Spanish</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.09723713143482481</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.007659792811062535</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1305423891249622</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.5226807067219995</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.01227469512240255</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.04426072899049101</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.08627511437839597</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1831865120569128</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="L27" t="n">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.1083333333333333</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.3114504690960337</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OptInSMSFlag</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.09168555811217059</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.002185656519503437</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.11629121067887</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.2964387572232474</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.07238282363564427</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.003916805555399559</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.07148160533094897</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4316321206112383</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4916666666666666</v>
+      </c>
+      <c r="L28" t="n">
+        <v>240</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2896541666666667</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2605</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.1951787111118146</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ConsumerGender_Male</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.09124982548740627</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.004903095963161274</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1122822088706471</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.3340392868675005</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.07495372405129946</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.001690697526365793</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.06928194788322231</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2659296481686031</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.4958333333333333</v>
+      </c>
+      <c r="L29" t="n">
+        <v>240</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6708333333333333</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.7895654048850879</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CallTimeOfDay_Morning</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.09085374848036759</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0004087234279972441</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1149260971650125</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.4160188310174834</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.07146350676245661</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.03817949050702533</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.06891342141196659</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.2059849398137636</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="L30" t="n">
+        <v>240</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.2002439237773843</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ChannelIsWeb</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0700284691915589</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.006844229436303358</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.09106775958206963</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.3623573339040456</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.047034832624354</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01311219604958197</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.06066500771983436</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.3086222920862432</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.5875</v>
+      </c>
+      <c r="L31" t="n">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.4069651601329826</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CampaignTier_Tier2</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.06830774170482687</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.009542924315676682</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.08447690990424439</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.3342419051066909</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.04098766875656852</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.03149670255426998</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.06080418657394922</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.2097878490194945</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L32" t="n">
+        <v>240</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.783333333333333</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.992384384841327</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>IsWeekendIncident</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0636022663526026</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-5.549900654915006e-06</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.08381796227763151</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.3341537587226069</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.02827122286239163</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.02610193156510291</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.05362227392592491</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.1272396822627834</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="L33" t="n">
+        <v>240</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.8375</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.871010399842286</v>
+      </c>
+      <c r="P33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CallTimeOfDay_Night</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05949064218206179</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.00803915449340464</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.07989193269733573</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.1571657559702224</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.04913404702502655</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.002344611796984366</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.04946032310033761</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3092054106551289</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="L34" t="n">
+        <v>240</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.5357511443785528</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SourceMedium_Radio</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.05602212558176627</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.005358523847717131</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.08832525904501926</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.1912012204334577</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.04084340790552118</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.01611823691162642</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01420464763100905</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3933809322951174</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3291666666666667</v>
+      </c>
+      <c r="L35" t="n">
+        <v>240</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.3536766443500572</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ChannelIsSMS</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05203981330518973</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.009195667832895806</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.08117209719816638</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.1623052374427627</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.04974746468650736</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.02727056179534932</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.0003535462858918453</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.4032115749680263</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L36" t="n">
+        <v>240</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.459215266610188</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RetainedByAttorneyFlag</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.04934433794016306</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.003894811441471511</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.09503218680230234</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.5896925716099571</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.007772274960570293</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.01633136557901864</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.02929307306732748</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.09954085959505118</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="L37" t="n">
+        <v>240</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.3416666666666667</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.4752596002051602</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HasUninsuredMotoristCoverage</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.04446408561434937</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.001621225553083971</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.05922208802646257</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.2248050036610564</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.03027239066486952</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.002010505723355457</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.03556423705567498</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.1709208016186553</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="L38" t="n">
+        <v>240</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.3578176530068733</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DeviceType_Tablet</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0430114977128745</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.006406118456693376</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1076052936865841</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.6205505379792088</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01393828815298134</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.01870391597991167</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.02374168288867568</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.03617177351963471</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="L39" t="n">
+        <v>240</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.4644810844633695</v>
+      </c>
+      <c r="P39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RegionGroup_West</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.04256572404571091</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.008934308266047183</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.06879773254231913</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.1105089380045885</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.02455941836904851</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.009686941748448342</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0153168697769461</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3501145317297955</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L40" t="n">
+        <v>240</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.4792595113495066</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IncidentSeason_Summer</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.03913395228772539</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.001625054800812879</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.05514077907842502</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.1902518690268162</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.02646494462068509</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.01126276595771357</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.02765927674725872</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.2250960366376792</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5875</v>
+      </c>
+      <c r="L41" t="n">
+        <v>240</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.3807611843372535</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SourceMedium_Search</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.03683968409101221</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.004667128130302313</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.06253882557649804</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.3637138815965991</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.002647970214909704</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.01326456592377363</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0261308655749795</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.07031078459618041</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="L42" t="n">
+        <v>240</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.4535425413564682</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SameDayIncidentToInquiry</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.03351522826280263</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.009300227755680844</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.06551290436240161</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.3379871144723561</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.02012981815290877</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.00450703133580891</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0133617419104867</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.1093921629464104</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.5958333333333333</v>
+      </c>
+      <c r="L43" t="n">
+        <v>240</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.1113346194565722</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>InquiryTimeOfDay_Night</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.03131239512778949</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.003161789040059628</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0422341112531127</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.1304661089655434</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.02643119589431572</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.005415022548495381</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0170368583896395</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.1900014785928716</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="L44" t="n">
+        <v>240</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5375</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.4996337570795124</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SourceMedium_TV</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02927966051235759</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0004165879406722985</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.04872999508173077</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.2292348304792889</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.001910540416984454</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.01001935329287563</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.02508899865800798</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.07435181384892105</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="L45" t="n">
+        <v>240</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.1798806360776621</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SameDayIncidentToCall</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.02580002134822481</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.0003681409537016159</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.03791624511338152</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.1580931877652822</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.01153570109719129</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.006484606585079139</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01983066265280352</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.07995227950296591</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="L46" t="n">
+        <v>240</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.4644810844633695</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HospitalizationFlag</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.02246977721075634</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.000493970228634747</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.04020897059003758</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.0419902639506621</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.01696496768859747</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.01065978214591505</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.005102405588024485</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.21729750845584</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="L47" t="n">
+        <v>240</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.2541666666666667</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.4363016562951755</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>IncidentSeason_Spring</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.02164115177958323</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.004090775024436023</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.03177608170895982</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.05091544376645388</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.01996452399876042</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.009816996224470725</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.003315117622402658</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1910704782341857</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="L48" t="n">
+        <v>240</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.4008359465753361</v>
+      </c>
+      <c r="P48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CallTimeOfDay_Evening</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0215406993230749</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0005341123192855771</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0345225583335447</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.1354996033524506</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.01625075078681847</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.007493604770221205</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.008328500462922023</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.1694581736251206</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L49" t="n">
+        <v>240</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.4339176406052788</v>
+      </c>
+      <c r="P49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>IncidentQuarter</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01929018390094099</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0004333255698964565</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.02894595812257016</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.08454318940292119</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.01314796379472525</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.001295071071022627</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.01302228414469864</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.1249672083711671</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="L50" t="n">
+        <v>240</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.4431408124257774</v>
+      </c>
+      <c r="P50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DuplicateInquiryFlag</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01648870378598643</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.001080399496376136</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.04591070333853108</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.3037308022104708</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.005326453328778236</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.008203614932181299</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.01030490252720988</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.01449216337221575</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="L51" t="n">
+        <v>240</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.4554795777487335</v>
+      </c>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>IncidentWithin180d</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01632797606844603</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.001128070140208818</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.03976668090325998</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.01458650859994902</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.009302799081324881</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.007945619480325501</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.006517703463987692</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.2801067787056062</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="L52" t="n">
+        <v>240</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.4829015047806191</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AbandonedCallFlag</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01218398706095971</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0002829510920603961</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.02850419875680953</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.03655919070133107</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.008108930709874153</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.004143690507278696</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-9.001577603131242e-06</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.2552540563158731</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L53" t="n">
+        <v>240</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.1541666666666667</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.3618631085707563</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>IncidentWithin30d</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.00832431961739501</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.00178792460942061</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.02979055312029009</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.2353804146432184</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.002421993053676846</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.003472967368361761</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.004084113734899311</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.005746990085367492</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="L54" t="n">
+        <v>240</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.4008359465753361</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>QuickResponseFlag</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.007179786229438229</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.0005041336025925633</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.00953898201275794</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.02523346284448579</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.005279272637014911</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.002043197770940698</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.004530585612777005</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.03737978591988557</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="L55" t="n">
+        <v>240</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.3944347861914312</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ConsumerGender_Unknown</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.00611056006163185</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.0002188350028941156</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.01717046469132807</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.005708857068784449</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.003797881907207826</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.003217944300395517</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.002566439479811917</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.117337228563337</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="L56" t="n">
+        <v>240</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.3734568434866355</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RecencyBucket_31_180d</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.006013278105455848</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.002494360093636235</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01555317777712106</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.1096227190137512</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0002853145270943731</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.001578018011375976</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.002784231048174356</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.005789088328224634</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="L57" t="n">
+        <v>240</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.1541666666666667</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.3618631085707563</v>
+      </c>
+      <c r="P57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>InOptimalWindowFlag</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.00280694728409705</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0003431369128545558</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.004370645200710736</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.02616979538294852</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.0009669108215226211</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0004980390201591347</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.002218237802786538</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.01276354105385286</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="L58" t="n">
+        <v>240</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.4535425413564682</v>
+      </c>
+      <c r="P58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IncidentWithin90d</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.002570497617760187</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0004476915375820451</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.004404875388759998</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.01135015533217727</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.0005766202182048007</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0002736364568738542</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.00109739505241381</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.01297624611316668</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="L59" t="n">
+        <v>240</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.2348624927825621</v>
+      </c>
+      <c r="P59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>IncidentSeason_Winter</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>240</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.289157869270797</v>
+      </c>
+      <c r="P60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
